--- a/data/trans_dic/P19_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo)</t>
+          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 98,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>75,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>80,68%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>82,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>80,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>80,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>77,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>78,26%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>77,68%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>77,5%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>76,44%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>79,34%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>80,1%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>80,34%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>78,49%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,42; 29,05</t>
+          <t>57,01; 85,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,46; 35,97</t>
+          <t>72,66; 87,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 23,15</t>
+          <t>76,63; 87,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,85; 29,27</t>
+          <t>68,49; 86,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,41; 26,03</t>
+          <t>72,21; 86,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,51; 26,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,95; 29,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,35; 28,38</t>
+          <t>68,97; 85,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,13; 23,98</t>
+          <t>70,38; 84,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,41; 22,91</t>
+          <t>72,18; 82,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,37; 24,86</t>
+          <t>74,75; 83,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,96; 29,8</t>
+          <t>69,45; 83,88</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>17,75; 24,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,87; 24,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>16,33; 23,25</t>
+          <t>66,32; 82,76</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>73,72; 84,18</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>76,35; 84,06</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>74,68; 83,49</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>72,85; 83,5</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>84,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>80,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>83,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>84,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>81,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>81,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>83,3%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>85,81%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>83,09%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>81,0%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>83,64%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>84,88%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>88,6%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,71; 20,76</t>
+          <t>79,82; 89,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,43; 21,17</t>
+          <t>76,19; 85,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,28; 18,12</t>
+          <t>79,75; 87,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,48; 19,88</t>
+          <t>79,47; 87,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,23; 16,99</t>
+          <t>82,23; 91,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 23,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,85; 23,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,71; 19,54</t>
+          <t>77,27; 85,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,24; 16,85</t>
+          <t>76,11; 85,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,29; 21,75</t>
+          <t>80,15; 86,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,1; 21,31</t>
+          <t>82,03; 88,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,33; 21,38</t>
+          <t>86,19; 92,71</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>13,66; 17,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,12; 17,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>12,99; 17,71</t>
+          <t>79,88; 86,28</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>77,45; 83,86</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>80,86; 85,98</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>82,0; 87,32</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>85,32; 90,98</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>78,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>85,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>91,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>73,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>79,03%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>88,1%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>76,19%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>82,82%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>81,89%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>88,09%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>90,44%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,67; 26,05</t>
+          <t>72,55; 84,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,87; 22,46</t>
+          <t>79,24; 88,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,29; 22,73</t>
+          <t>80,88; 88,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 15,53</t>
+          <t>83,88; 91,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,46; 18,27</t>
+          <t>87,58; 94,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,11; 27,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,76; 22,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,39; 24,88</t>
+          <t>68,15; 79,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,85; 14,46</t>
+          <t>77,08; 85,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 16,67</t>
+          <t>74,51; 82,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,29; 25,58</t>
+          <t>84,62; 90,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,38; 21,31</t>
+          <t>85,97; 92,14</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>16,41; 21,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,46; 14,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 15,59</t>
+          <t>71,95; 80,17</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>79,83; 85,94</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>78,78; 84,32</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>85,4; 90,07</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>87,99; 92,47</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>81,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>81,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>78,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>76,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>78,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>83,12%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>79,62%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>79,18%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>80,12%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>86,7%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 21,45</t>
+          <t>77,96; 84,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,4; 22,19</t>
+          <t>77,15; 84,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,98; 18,81</t>
+          <t>75,55; 86,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,48; 17,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,94; 17,84</t>
+          <t>85,44; 92,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,69; 24,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,7; 22,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 21,72</t>
+          <t>75,32; 80,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,76; 16,47</t>
+          <t>73,17; 80,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,41; 18,89</t>
+          <t>73,17; 82,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,72; 22,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 21,38</t>
+          <t>77,63; 86,96</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 19,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 16,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>14,21; 17,65</t>
+          <t>77,45; 81,75</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>76,35; 82,05</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>75,98; 83,4</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>83,92; 89,47</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>81,09%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>81,68%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>83,58%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>84,69%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>88,32%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>78,13%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>79,33%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>80,09%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>85,15%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>85,78%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>79,58%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>80,48%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>81,81%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>84,92%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>87,02%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78,58; 83,34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79,26; 84,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>81,23; 85,77</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>81,1; 87,13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>85,64; 90,42</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>76,02; 80,54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>76,73; 81,56</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>78,07; 82,03</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>82,89; 86,85</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>83,45; 87,64</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>77,97; 81,05</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>78,77; 82,07</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>80,35; 83,43</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>82,85; 86,38</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>85,41; 88,64</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 98,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>382.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>521.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>156540</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>263685</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>427765</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>544243</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>311510</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>191533</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>313487</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>469306</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>675348</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>478196</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>348074</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>577171</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>897071</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1219590</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>789706</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>118730; 177697</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>237488; 286115</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>395216; 452541</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>461332; 580596</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>280939; 336106</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>170435; 210610</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>281941; 338348</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>436095; 501201</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>631201; 706586</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>428560; 517581</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>302013; 376890</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>536223; 612375</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>855087; 941381</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1133695; 1267426</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>732937; 840091</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>493.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>459.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>579.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>547.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>839.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1072.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>621.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>527595</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>747368</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1002376</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1345130</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>926495</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>558953</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>789957</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1018031</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1260574</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>961253</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1086548</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1537325</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2020407</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2605703</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1887749</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>496871; 554775</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>703655; 791607</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>951752; 1042612</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1272083; 1403252</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>871667; 967671</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>529439; 588106</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>741568; 831963</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>979507; 1056412</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1204911; 1299522</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>922714; 992465</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1044612; 1128305</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1469902; 1591648</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1953257; 2076924</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2517166; 2680513</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>1817803; 1938479</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>509.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>448.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>655.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>921.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>583.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>356096</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>600345</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>717324</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>956223</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>754833</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>386995</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>619680</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>736572</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1010479</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>795313</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>743092</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1220025</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1453896</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1966702</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>1550146</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>327448; 382470</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>567009; 630986</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>682163; 747560</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>910626; 991409</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>723113; 777230</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>357109; 416641</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>583880; 648125</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>694452; 767695</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>970582; 1037990</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>763602; 818456</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>701734; 781915</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1175939; 1265965</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1398680; 1496936</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1906782; 2010833</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>1508154; 1584798</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>631.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>691.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1322.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>748.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>515.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>563.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1660783</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1133311</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>687652</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>972642</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1560501</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1039275</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>575683</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>789098</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3221283</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2172587</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1263335</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1761740</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1597109; 1730432</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1075555; 1180009</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>634275; 722783</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>925064; 1004129</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1504028; 1614013</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>987748; 1088578</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>539534; 606575</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>736977; 825505</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3133592; 3307369</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2094985; 2251426</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1198157; 1315088</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1705281; 1818012</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1064.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>909.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1114.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1131.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>907.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1201.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1037.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1277.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1383.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1081.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2265.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1946.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>2391.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2514.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>1988.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2701015</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2744709</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2835116</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2845597</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2965481</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2697982</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2762398</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2799592</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2946399</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3023860</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5398996</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>5507107</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>5634708</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>5791996</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>5989341</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2617350; 2775892</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2663253; 2824624</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2755324; 2909372</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2725146; 2927604</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2875259; 3035676</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2625274; 2781317</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2671894; 2840253</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2728907; 2867589</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2868396; 3005268</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2941895; 3089436</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>5289428; 5498600</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>5389747; 5615588</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>5534360; 5746657</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>5650422; 5891258</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>5878457; 6100719</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
